--- a/Gmonster SSH Access.xlsx
+++ b/Gmonster SSH Access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\log-summarizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A659A978-5DB8-4E89-B5D3-384C7ED60893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D380BACB-82BA-44F1-B78B-E6C95BFDDFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E57CCEC-5FAA-4D81-81D9-E6512E569576}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E57CCEC-5FAA-4D81-81D9-E6512E569576}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Gmonster Instance</t>
   </si>
   <si>
-    <t>GM1</t>
-  </si>
-  <si>
     <t>IP Address</t>
   </si>
   <si>
@@ -51,16 +48,34 @@
     <t>SSH Access</t>
   </si>
   <si>
-    <t>jBFFCx7wEd9tG!V*yXJ.23=f7DpOQyfN</t>
-  </si>
-  <si>
     <t>User Name</t>
   </si>
   <si>
     <t>Administrator</t>
   </si>
   <si>
-    <t>3.235.100.250</t>
+    <t>GM2</t>
+  </si>
+  <si>
+    <t>44.192.97.148</t>
+  </si>
+  <si>
+    <t>un6B(AGiQGl-nR4a7v%XEWs$E3-OS-Na</t>
+  </si>
+  <si>
+    <t>GM3</t>
+  </si>
+  <si>
+    <t>3cvZ3tW$@Nc4cZX6dMu@Xs8y$bPYPbu4</t>
+  </si>
+  <si>
+    <t>GM4</t>
+  </si>
+  <si>
+    <t>44.203.79.173</t>
+  </si>
+  <si>
+    <t>Jxj%UU;sa@R89E2vbjP=Wyd@)4YMx7Fd</t>
   </si>
 </sst>
 </file>
@@ -131,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +171,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +495,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,49 +515,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="7" t="str">
+        <f t="shared" ref="E2:E4" si="0">CONCATENATE(C2,"@",B2)</f>
+        <v>Administrator@44.192.97.148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10">
+        <v>34205191142</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="str">
-        <f t="shared" ref="E2" si="0">CONCATENATE(C2,"@",B2)</f>
-        <v>Administrator@3.235.100.250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Administrator@34205191142</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Administrator@44.203.79.173</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
@@ -626,8 +669,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Gmonster SSH Access.xlsx
+++ b/Gmonster SSH Access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\log-summarizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D380BACB-82BA-44F1-B78B-E6C95BFDDFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595073B9-76FC-4581-9FC5-7308A5CC55B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E57CCEC-5FAA-4D81-81D9-E6512E569576}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E57CCEC-5FAA-4D81-81D9-E6512E569576}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Gmonster Instance</t>
   </si>
   <si>
+    <t>GM2</t>
+  </si>
+  <si>
+    <t>GM3</t>
+  </si>
+  <si>
     <t>IP Address</t>
   </si>
   <si>
@@ -48,34 +54,22 @@
     <t>SSH Access</t>
   </si>
   <si>
+    <t>3.94.153.78</t>
+  </si>
+  <si>
+    <t>3cvZ3tW$@Nc4cZX6dMu@Xs8y$bPYPbu4</t>
+  </si>
+  <si>
+    <t>44.192.97.148</t>
+  </si>
+  <si>
+    <t>un6B(AGiQGl-nR4a7v%XEWs$E3-OS-nA</t>
+  </si>
+  <si>
     <t>User Name</t>
   </si>
   <si>
     <t>Administrator</t>
-  </si>
-  <si>
-    <t>GM2</t>
-  </si>
-  <si>
-    <t>44.192.97.148</t>
-  </si>
-  <si>
-    <t>un6B(AGiQGl-nR4a7v%XEWs$E3-OS-Na</t>
-  </si>
-  <si>
-    <t>GM3</t>
-  </si>
-  <si>
-    <t>3cvZ3tW$@Nc4cZX6dMu@Xs8y$bPYPbu4</t>
-  </si>
-  <si>
-    <t>GM4</t>
-  </si>
-  <si>
-    <t>44.203.79.173</t>
-  </si>
-  <si>
-    <t>Jxj%UU;sa@R89E2vbjP=Wyd@)4YMx7Fd</t>
   </si>
 </sst>
 </file>
@@ -146,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,12 +165,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23899A62-EA8F-4F82-8EAC-43EB86CA1F9A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,155 +503,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="7" t="str">
-        <f t="shared" ref="E2:E4" si="0">CONCATENATE(C2,"@",B2)</f>
+        <f t="shared" ref="E2:E3" si="0">CONCATENATE(C2,"@",B2)</f>
         <v>Administrator@44.192.97.148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10">
-        <v>34205191142</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Administrator@34205191142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Administrator@44.203.79.173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
+        <v>Administrator@3.94.153.78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Gmonster SSH Access.xlsx
+++ b/Gmonster SSH Access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\log-summarizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595073B9-76FC-4581-9FC5-7308A5CC55B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE459E-6C9F-4A6A-8329-EEA07D4E4404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E57CCEC-5FAA-4D81-81D9-E6512E569576}"/>
+    <workbookView xWindow="35130" yWindow="2205" windowWidth="21600" windowHeight="11235" xr2:uid="{9E57CCEC-5FAA-4D81-81D9-E6512E569576}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Gmonster Instance</t>
   </si>
   <si>
-    <t>GM2</t>
-  </si>
-  <si>
-    <t>GM3</t>
-  </si>
-  <si>
     <t>IP Address</t>
   </si>
   <si>
@@ -54,22 +48,34 @@
     <t>SSH Access</t>
   </si>
   <si>
-    <t>3.94.153.78</t>
-  </si>
-  <si>
-    <t>3cvZ3tW$@Nc4cZX6dMu@Xs8y$bPYPbu4</t>
-  </si>
-  <si>
-    <t>44.192.97.148</t>
-  </si>
-  <si>
-    <t>un6B(AGiQGl-nR4a7v%XEWs$E3-OS-nA</t>
-  </si>
-  <si>
     <t>User Name</t>
   </si>
   <si>
     <t>Administrator</t>
+  </si>
+  <si>
+    <t>GM10</t>
+  </si>
+  <si>
+    <t>35175118143</t>
+  </si>
+  <si>
+    <t>OLl8At16sJ2wiguRG(4Um!Me?)ioQwt$</t>
+  </si>
+  <si>
+    <t>Administrator@35175118143</t>
+  </si>
+  <si>
+    <t>GM11</t>
+  </si>
+  <si>
+    <t>18.204.34.173</t>
+  </si>
+  <si>
+    <t>z$lG.z?jlJ$ufvE7sdqMpXNimkskdh-k</t>
+  </si>
+  <si>
+    <t>Administrator@18.204.34.173</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,52 +509,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <f t="shared" ref="E2:E3" si="0">CONCATENATE(C2,"@",B2)</f>
-        <v>Administrator@44.192.97.148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Administrator@3.94.153.78</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Gmonster SSH Access.xlsx
+++ b/Gmonster SSH Access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\log-summarizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE459E-6C9F-4A6A-8329-EEA07D4E4404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F9D851-A954-4DDD-B2A3-C13FB718AB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35130" yWindow="2205" windowWidth="21600" windowHeight="11235" xr2:uid="{9E57CCEC-5FAA-4D81-81D9-E6512E569576}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E57CCEC-5FAA-4D81-81D9-E6512E569576}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -57,15 +57,9 @@
     <t>GM10</t>
   </si>
   <si>
-    <t>35175118143</t>
-  </si>
-  <si>
     <t>OLl8At16sJ2wiguRG(4Um!Me?)ioQwt$</t>
   </si>
   <si>
-    <t>Administrator@35175118143</t>
-  </si>
-  <si>
     <t>GM11</t>
   </si>
   <si>
@@ -76,13 +70,19 @@
   </si>
   <si>
     <t>Administrator@18.204.34.173</t>
+  </si>
+  <si>
+    <t>35.175.118.143</t>
+  </si>
+  <si>
+    <t>Administrator@35.175.118.143</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +100,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,10 +151,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,8 +181,12 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,7 +502,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,38 +539,41 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{BBB1E029-4056-453E-A031-7166238D968D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>